--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
@@ -8,18 +8,12 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from LOINC 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from LOINC 3" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from LOINC 4" r:id="rId7" sheetId="5"/>
-    <sheet name="Include from LOINC 5" r:id="rId8" sheetId="6"/>
-    <sheet name="Include from LOINC 6" r:id="rId9" sheetId="7"/>
-    <sheet name="Include from LOINC 7" r:id="rId10" sheetId="8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -108,18 +102,51 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>concept</t>
-  </si>
-  <si>
-    <t>=</t>
+    <t>Concept</t>
   </si>
   <si>
     <t>LP29684-5</t>
   </si>
   <si>
+    <t>放射線</t>
+  </si>
+  <si>
+    <t>LP7839-6</t>
+  </si>
+  <si>
+    <t>病理</t>
+  </si>
+  <si>
+    <t>LP7796-8</t>
+  </si>
+  <si>
+    <t>内視鏡</t>
+  </si>
+  <si>
+    <t>LP29693-6</t>
+  </si>
+  <si>
+    <t>検体検査</t>
+  </si>
+  <si>
+    <t>LP29708-2</t>
+  </si>
+  <si>
+    <t>循環器</t>
+  </si>
+  <si>
+    <t>LP31795-1</t>
+  </si>
+  <si>
+    <t>歯科口腔</t>
+  </si>
+  <si>
+    <t>LP7819-8</t>
+  </si>
+  <si>
+    <t>微生物検査</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -127,24 +154,6 @@
   </si>
   <si>
     <t>http://loinc.org</t>
-  </si>
-  <si>
-    <t>LP7839-6</t>
-  </si>
-  <si>
-    <t>LP7796-8</t>
-  </si>
-  <si>
-    <t>LP29693-6</t>
-  </si>
-  <si>
-    <t>LP29708-2</t>
-  </si>
-  <si>
-    <t>LP31795-1</t>
-  </si>
-  <si>
-    <t>LP7819-8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -425,13 +434,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -441,13 +447,10 @@
       <c r="B2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>32</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>33</v>
@@ -461,334 +464,52 @@
         <v>35</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s" s="2">
+    <row r="5">
+      <c r="A5" t="s" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s" s="2">
+      <c r="B5" t="s" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s" s="2">
+    <row r="6">
+      <c r="A6" t="s" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s" s="2">
+      <c r="B6" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s" s="2">
+    <row r="7">
+      <c r="A7" t="s" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s" s="2">
+      <c r="B7" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>35</v>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
@@ -135,7 +135,7 @@
     <t>循環器</t>
   </si>
   <si>
-    <t>LP31795-1</t>
+    <t>LP31759-1</t>
   </si>
   <si>
     <t>歯科口腔</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
@@ -93,7 +93,8 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討  
+This material contains content from LOINC (http://loinc.org). LOINC is copyright © 1995-2020, Regenstrief Institute, Inc. and the Logical Observation Identifiers Names and Codes (LOINC) Committee and is available at no cost under the license at http://loinc.org/license. LOINC® is a registered United States trademark of Regenstrief Institute, Inc</t>
   </si>
   <si>
     <t>Immutable</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
@@ -276,10 +276,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
@@ -276,10 +276,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-18</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -134,12 +134,6 @@
   </si>
   <si>
     <t>循環器</t>
-  </si>
-  <si>
-    <t>LP31759-1</t>
-  </si>
-  <si>
-    <t>歯科口腔</t>
   </si>
   <si>
     <t>LP7819-8</t>
@@ -423,7 +417,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -494,23 +488,15 @@
         <v>42</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>44</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from loinc.dummy.org" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -136,6 +136,12 @@
     <t>循環器</t>
   </si>
   <si>
+    <t>LP31759-1</t>
+  </si>
+  <si>
+    <t>歯科口腔</t>
+  </si>
+  <si>
     <t>LP7819-8</t>
   </si>
   <si>
@@ -148,7 +154,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
+    <t>http://loinc.dummy.org</t>
   </si>
 </sst>
 </file>
@@ -417,7 +423,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -488,15 +494,23 @@
         <v>42</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from loinc.dummy.org" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -154,7 +154,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://loinc.dummy.org</t>
+    <t>http://loinc.org</t>
   </si>
 </sst>
 </file>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
+++ b/jpcore-r4/develop/ValueSet-jp-diagnosticreportcategory-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
